--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_03.03.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_03.03.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECD720B-970C-DA4E-9163-7D31269736D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687EAC55-8410-9A44-AB7A-8C237907750A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="19580" windowHeight="19640" xr2:uid="{5EC711FD-29FB-E046-A8C8-B789A9DE105B}"/>
+    <workbookView xWindow="16080" yWindow="460" windowWidth="19580" windowHeight="19640" xr2:uid="{5EC711FD-29FB-E046-A8C8-B789A9DE105B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>03.03.20</t>
   </si>
   <si>
-    <t>J.Plaggenberg</t>
-  </si>
-  <si>
     <t>02.20.20</t>
   </si>
   <si>
     <t>02.24.20</t>
+  </si>
+  <si>
+    <t>J.PLAGGENBERG</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,8 +543,8 @@
       <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -575,8 +575,8 @@
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -607,8 +607,8 @@
       <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
@@ -639,8 +639,8 @@
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -671,8 +671,8 @@
       <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
@@ -703,8 +703,8 @@
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="3">
         <v>6</v>
@@ -735,8 +735,8 @@
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="3">
         <v>7</v>
@@ -767,8 +767,8 @@
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="3">
         <v>8</v>
@@ -799,8 +799,8 @@
       <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F10" s="3">
         <v>9</v>
@@ -831,8 +831,8 @@
       <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F11" s="3">
         <v>10</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -863,8 +863,8 @@
       <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="3">
         <v>11</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -895,8 +895,8 @@
       <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F13" s="3">
         <v>12</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -927,8 +927,8 @@
       <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F14" s="3">
         <v>13</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -959,8 +959,8 @@
       <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F15" s="3">
         <v>14</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -991,8 +991,8 @@
       <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F16" s="3">
         <v>15</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -1023,8 +1023,8 @@
       <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F17" s="3">
         <v>16</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
@@ -1055,8 +1055,8 @@
       <c r="D18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F18" s="3">
         <v>17</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
@@ -1087,8 +1087,8 @@
       <c r="D19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F19" s="3">
         <v>18</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
@@ -1119,8 +1119,8 @@
       <c r="D20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F20" s="3">
         <v>19</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>14</v>
@@ -1151,8 +1151,8 @@
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
+      <c r="E21" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F21" s="3">
         <v>20</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
         <v>21</v>
@@ -1183,8 +1183,8 @@
       <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F22" s="3">
         <v>21</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
@@ -1215,8 +1215,8 @@
       <c r="D23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>16</v>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F23" s="3">
         <v>22</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3">
         <v>23</v>
@@ -1247,8 +1247,8 @@
       <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>16</v>
+      <c r="E24" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F24" s="3">
         <v>23</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
@@ -1279,8 +1279,8 @@
       <c r="D25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>16</v>
+      <c r="E25" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F25" s="3">
         <v>24</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3">
         <v>25</v>
@@ -1311,8 +1311,8 @@
       <c r="D26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>16</v>
+      <c r="E26" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F26" s="3">
         <v>25</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3">
         <v>26</v>
@@ -1343,8 +1343,8 @@
       <c r="D27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>16</v>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F27" s="3">
         <v>26</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3">
         <v>27</v>
@@ -1375,8 +1375,8 @@
       <c r="D28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>16</v>
+      <c r="E28" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F28" s="3">
         <v>27</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3">
         <v>28</v>
@@ -1407,8 +1407,8 @@
       <c r="D29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
+      <c r="E29" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F29" s="3">
         <v>28</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3">
         <v>29</v>
@@ -1439,8 +1439,8 @@
       <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>16</v>
+      <c r="E30" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F30" s="3">
         <v>29</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3">
         <v>30</v>
@@ -1471,8 +1471,8 @@
       <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>16</v>
+      <c r="E31" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F31" s="3">
         <v>30</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3">
         <v>31</v>
@@ -1503,8 +1503,8 @@
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>16</v>
+      <c r="E32" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F32" s="3">
         <v>31</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3">
         <v>32</v>
@@ -1535,8 +1535,8 @@
       <c r="D33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>16</v>
+      <c r="E33" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F33" s="3">
         <v>32</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3">
         <v>33</v>
@@ -1567,8 +1567,8 @@
       <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>16</v>
+      <c r="E34" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F34" s="3">
         <v>33</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3">
         <v>34</v>
@@ -1599,8 +1599,8 @@
       <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>16</v>
+      <c r="E35" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F35" s="3">
         <v>34</v>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3">
         <v>35</v>
@@ -1631,8 +1631,8 @@
       <c r="D36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>16</v>
+      <c r="E36" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F36" s="3">
         <v>35</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C37" s="3">
         <v>36</v>
@@ -1663,8 +1663,8 @@
       <c r="D37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>16</v>
+      <c r="E37" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F37" s="3">
         <v>36</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C38" s="3">
         <v>37</v>
@@ -1695,8 +1695,8 @@
       <c r="D38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>16</v>
+      <c r="E38" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F38" s="3">
         <v>37</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C39" s="3">
         <v>38</v>
@@ -1727,8 +1727,8 @@
       <c r="D39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>16</v>
+      <c r="E39" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F39" s="3">
         <v>38</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3">
         <v>39</v>
@@ -1759,8 +1759,8 @@
       <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>16</v>
+      <c r="E40" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F40" s="3">
         <v>39</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C41" s="3">
         <v>40</v>
@@ -1791,8 +1791,8 @@
       <c r="D41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>16</v>
+      <c r="E41" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F41" s="3">
         <v>40</v>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_03.03.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_03.03.20.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -213,8 +213,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
